--- a/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.3/Experimentos_Generador/ex9.2.3(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,16 +57,16 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-40 + x_1 + x_2 + y_1 - 2y_2</t>
-  </si>
-  <si>
-    <t>-29.227749368863755</t>
+    <t>-16.45 + x_1 + x_2 + y_1 - 2y_2</t>
+  </si>
+  <si>
+    <t>-23.55</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.15666675595456303</t>
+    <t>0.86</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -78,103 +78,103 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>10 - x_1 - 0.2404132953131409y_1 + 1.6558082001777785y_2</t>
-  </si>
-  <si>
-    <t>-4.337195022903575</t>
+    <t>18.96236363636364 - x_1 + 0.009696969696969704y_1 + 2.0072727272727273y_2</t>
+  </si>
+  <si>
+    <t>-8.962363636363639</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13800456429576358</t>
-  </si>
-  <si>
-    <t>0.6745568666227869</t>
-  </si>
-  <si>
-    <t>0.9972652494045935</t>
-  </si>
-  <si>
-    <t>10 - x_2 - 0.585728900171587y_1 + 1.161431217456761y_2</t>
-  </si>
-  <si>
-    <t>4.038428922784831</t>
-  </si>
-  <si>
-    <t>0.5184691683237959</t>
-  </si>
-  <si>
-    <t>0.8651975693890938</t>
-  </si>
-  <si>
-    <t>0.5042401028320971</t>
-  </si>
-  <si>
-    <t>-10 - 0.22932442500548145y_1 + 1.1033508479257956y_2</t>
-  </si>
-  <si>
-    <t>-18.438474598582076</t>
-  </si>
-  <si>
-    <t>0.6594478945100174</t>
-  </si>
-  <si>
-    <t>0.19793594156938898</t>
-  </si>
-  <si>
-    <t>0.6321677544902408</t>
-  </si>
-  <si>
-    <t>-20 + 0.7319144150322708y_1 - 0.3838093058715799y_2</t>
-  </si>
-  <si>
-    <t>-23.28070400150398</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>6.8999999999999995</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>13.089636363636366 - x_2 - 0.5963636363636362y_1 + 1.5527272727272727y_2</t>
+  </si>
+  <si>
+    <t>-3.089636363636366</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>19.73236363636363 + 1.1430303030303026y_1 + 1.607272727272727y_2</t>
+  </si>
+  <si>
+    <t>-29.73236363636363</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>-19.372799999999998 - 1.112y_1 - 1.5839999999999999y_2</t>
+  </si>
+  <si>
+    <t>-0.627200000000002</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.8823228668879504</t>
-  </si>
-  <si>
-    <t>0.22981863634656607</t>
-  </si>
-  <si>
-    <t>0.011804425017690514</t>
-  </si>
-  <si>
-    <t>-10 + 1.1364666153873229y_1 + 0.6270418375927904y_2</t>
-  </si>
-  <si>
-    <t>-26.870474346154595</t>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>3.9000000000000004</t>
+  </si>
+  <si>
+    <t>5.6000000000000005</t>
+  </si>
+  <si>
+    <t>-37.13745454545454 + 2.2254545454545447y_1 + 0.6690909090909085y_2</t>
+  </si>
+  <si>
+    <t>-27.13745454545454</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2917832556941835</t>
-  </si>
-  <si>
-    <t>0.7440950838940821</t>
-  </si>
-  <si>
-    <t>0.9523348742950476</t>
-  </si>
-  <si>
-    <t>-20 - 0.19666084308720935y_1 + 0.7184471455766357y_2</t>
-  </si>
-  <si>
-    <t>-25.04351501600874</t>
-  </si>
-  <si>
-    <t>0.8952090405611031</t>
-  </si>
-  <si>
-    <t>0.7143188226941808</t>
-  </si>
-  <si>
-    <t>0.3894749718828572</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>7.199999999999999</t>
+  </si>
+  <si>
+    <t>-56.29072727272727 + 0.6593939393939391y_1 + 1.4945454545454542y_2</t>
+  </si>
+  <si>
+    <t>-36.29072727272727</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>4.699999999999999</t>
   </si>
   <si>
     <t>x_1</t>
@@ -189,40 +189,37 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>0.6847124798650022</t>
-  </si>
-  <si>
-    <t>0.3610102338450799</t>
-  </si>
-  <si>
-    <t>-9.531809102458938</t>
-  </si>
-  <si>
-    <t>-9.629168509942552</t>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>-8.65</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-19.880203007674076</t>
-  </si>
-  <si>
-    <t>-22.06539723421816</t>
+    <t>-27.460181818181816</t>
+  </si>
+  <si>
+    <t>-19.517636363636363</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.5457777599223158</t>
-  </si>
-  <si>
-    <t>0.04904669643944082</t>
-  </si>
-  <si>
-    <t>1.7479680681541268</t>
-  </si>
-  <si>
-    <t>-1.2589519543102798</t>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>-17.602957575757568</t>
+  </si>
+  <si>
+    <t>-21.61221818181818</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -887,17 +884,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -915,17 +912,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4681660647047301</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.670257941502455</v>
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>
